--- a/Technical Analysis Report-Forum-FSE.xlsx
+++ b/Technical Analysis Report-Forum-FSE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
   <si>
     <t xml:space="preserve">Problem Statement </t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>removeUserAsModerator()</t>
+  </si>
+  <si>
+    <t>String userId</t>
+  </si>
+  <si>
+    <t>addLikeForComment()</t>
   </si>
 </sst>
 </file>
@@ -556,21 +562,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -587,6 +581,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -926,7 +932,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -934,7 +940,7 @@
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C2" t="s">
@@ -957,7 +963,7 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -974,30 +980,30 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="25.8">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24">
       <c r="C9" t="s">
@@ -1071,21 +1077,21 @@
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C12" t="s">
@@ -1104,27 +1110,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="13" customFormat="1" ht="46.8">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:24" s="9" customFormat="1" ht="46.8">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>84</v>
+      <c r="F13" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C14" t="s">
@@ -1144,48 +1150,48 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:24" ht="25.8">
       <c r="A17" s="2"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" ht="25.8">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -1257,75 +1263,75 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="28" spans="1:24" ht="25.8">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24">
       <c r="C29" t="s">
@@ -1399,21 +1405,21 @@
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="11"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C32" t="s">
@@ -1438,42 +1444,42 @@
         <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="14" customFormat="1" ht="46.8">
-      <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="10" customFormat="1" ht="46.8">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="11"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C34" t="s">
@@ -1502,48 +1508,48 @@
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="11"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:24" ht="25.8">
       <c r="A37" s="2"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" ht="25.8">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>24</v>
       </c>
@@ -1615,75 +1621,75 @@
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="49" spans="1:24" ht="25.8">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
     </row>
     <row r="50" spans="1:24">
       <c r="C50" t="s">
@@ -1757,21 +1763,21 @@
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="11"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C53" t="s">
@@ -1793,27 +1799,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="14" customFormat="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="19" t="s">
+    <row r="54" spans="1:24" s="10" customFormat="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="11"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C55" t="s">
@@ -1836,48 +1842,48 @@
       </c>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="11"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="12"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:24" ht="25.8">
       <c r="A58" s="2"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
     </row>
     <row r="59" spans="1:24" ht="25.8">
       <c r="A59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
       <c r="C59" t="s">
         <v>24</v>
       </c>
@@ -1949,49 +1955,49 @@
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
